--- a/Feb 20/feb-20.xlsx
+++ b/Feb 20/feb-20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\Feb 20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\augbazerlist\Feb 20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>rakib</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>naim barisal</t>
+  </si>
+  <si>
+    <t>imon</t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,63 +1090,168 @@
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.3</v>
+      </c>
+      <c r="F11">
+        <v>3.3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>545</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4.5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>480</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="L13" s="1">
+        <v>665</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L14" s="1">
+        <v>348</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1326,47 +1434,47 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f>SUM(B3:B32)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:K34" si="1">SUM(C3:C32)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13.3</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20.3</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20.8</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>182.4</v>
       </c>
       <c r="L34" s="6">
         <f>SUM(L3:L32)</f>
-        <v>4145</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -1375,49 +1483,49 @@
       </c>
       <c r="G36" s="8">
         <f>L34/K34</f>
-        <v>37.68181818181818</v>
+        <v>33.898026315789473</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>B34*G36</f>
-        <v>527.5454545454545</v>
+        <v>745.75657894736844</v>
       </c>
       <c r="C37" s="1">
         <f>(C34*G36)</f>
-        <v>565.22727272727275</v>
+        <v>779.65460526315792</v>
       </c>
       <c r="D37" s="1">
         <f>D34*G36</f>
-        <v>414.5</v>
+        <v>610.16447368421052</v>
       </c>
       <c r="E37" s="1">
         <f>E34*G36</f>
-        <v>339.13636363636363</v>
+        <v>450.84375</v>
       </c>
       <c r="F37" s="1">
         <f>F34*G36</f>
-        <v>376.81818181818181</v>
+        <v>688.12993421052636</v>
       </c>
       <c r="G37" s="1">
         <f>G34*G36</f>
-        <v>565.22727272727275</v>
+        <v>779.65460526315792</v>
       </c>
       <c r="H37" s="1">
         <f>H34*G36</f>
-        <v>602.90909090909088</v>
+        <v>813.55263157894728</v>
       </c>
       <c r="I37" s="1">
         <f>I34*G36</f>
-        <v>376.81818181818181</v>
+        <v>705.07894736842104</v>
       </c>
       <c r="J37" s="1">
         <f>J34*G36</f>
-        <v>376.81818181818181</v>
+        <v>610.16447368421052</v>
       </c>
       <c r="K37" s="1">
         <f>K34*G36</f>
-        <v>4145</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -1440,7 +1548,7 @@
         <v>100</v>
       </c>
       <c r="C39" s="12">
-        <v>1997</v>
+        <v>2107</v>
       </c>
       <c r="D39" s="12">
         <v>1275</v>
@@ -1450,16 +1558,18 @@
         <v>1239</v>
       </c>
       <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="12">
+        <v>163</v>
+      </c>
       <c r="I39" s="12">
         <v>1000</v>
       </c>
       <c r="J39" s="12">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="K39" s="12">
         <f>SUM(B39:J39)</f>
-        <v>5771</v>
+        <v>6564</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -1510,43 +1620,43 @@
     <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>(B39-B37)</f>
-        <v>-427.5454545454545</v>
+        <v>-645.75657894736844</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:K44" si="2">(C39-C37)</f>
-        <v>1431.7727272727273</v>
+        <v>1327.3453947368421</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="2"/>
-        <v>860.5</v>
+        <v>664.83552631578948</v>
       </c>
       <c r="E44" s="13">
         <f t="shared" si="2"/>
-        <v>-339.13636363636363</v>
+        <v>-450.84375</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
-        <v>862.18181818181824</v>
+        <v>550.87006578947364</v>
       </c>
       <c r="G44" s="13">
         <f>(G39-G37)</f>
-        <v>-565.22727272727275</v>
+        <v>-779.65460526315792</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="2"/>
-        <v>-602.90909090909088</v>
+        <v>-650.55263157894728</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="2"/>
-        <v>623.18181818181824</v>
+        <v>294.92105263157896</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="2"/>
-        <v>-216.81818181818181</v>
+        <v>69.83552631578948</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="2"/>
-        <v>1626</v>
+        <v>381</v>
       </c>
       <c r="L44" s="13"/>
     </row>

--- a/Feb 20/feb-20.xlsx
+++ b/Feb 20/feb-20.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>rakib</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>imon</t>
+  </si>
+  <si>
+    <t>naim barisal + chaldal</t>
   </si>
 </sst>
 </file>
@@ -680,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="1">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>5</v>
@@ -1258,66 +1261,285 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="L15" s="1">
+        <v>707</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1">
+        <v>777</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1">
+        <v>295</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1">
+        <v>635</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -1326,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -1335,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -1344,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -1353,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -1362,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -1371,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -1380,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -1389,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -1398,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -1407,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -1434,47 +1656,47 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f>SUM(B3:B32)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:K34" si="1">SUM(C3:C32)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>13.3</v>
+        <v>18.3</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>20.3</v>
+        <v>28.3</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>20.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>182.4</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="L34" s="6">
         <f>SUM(L3:L32)</f>
-        <v>6183</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -1483,49 +1705,49 @@
       </c>
       <c r="G36" s="8">
         <f>L34/K34</f>
-        <v>33.898026315789473</v>
+        <v>34.927378358750907</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>B34*G36</f>
-        <v>745.75657894736844</v>
+        <v>1187.5308641975309</v>
       </c>
       <c r="C37" s="1">
         <f>(C34*G36)</f>
-        <v>779.65460526315792</v>
+        <v>1222.4582425562817</v>
       </c>
       <c r="D37" s="1">
         <f>D34*G36</f>
-        <v>610.16447368421052</v>
+        <v>1047.8213507625271</v>
       </c>
       <c r="E37" s="1">
         <f>E34*G36</f>
-        <v>450.84375</v>
+        <v>639.17102396514167</v>
       </c>
       <c r="F37" s="1">
         <f>F34*G36</f>
-        <v>688.12993421052636</v>
+        <v>988.44480755265067</v>
       </c>
       <c r="G37" s="1">
         <f>G34*G36</f>
-        <v>779.65460526315792</v>
+        <v>943.03921568627447</v>
       </c>
       <c r="H37" s="1">
         <f>H34*G36</f>
-        <v>813.55263157894728</v>
+        <v>1257.3856209150326</v>
       </c>
       <c r="I37" s="1">
         <f>I34*G36</f>
-        <v>705.07894736842104</v>
+        <v>1285.3275236020334</v>
       </c>
       <c r="J37" s="1">
         <f>J34*G36</f>
-        <v>610.16447368421052</v>
+        <v>1047.8213507625271</v>
       </c>
       <c r="K37" s="1">
         <f>K34*G36</f>
-        <v>6183</v>
+        <v>9618.9999999999982</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -1545,7 +1767,7 @@
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>100</v>
+        <v>1080</v>
       </c>
       <c r="C39" s="12">
         <v>2107</v>
@@ -1553,23 +1775,27 @@
       <c r="D39" s="12">
         <v>1275</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12">
+        <v>1354</v>
+      </c>
       <c r="F39" s="12">
         <v>1239</v>
       </c>
-      <c r="G39" s="12"/>
+      <c r="G39" s="12">
+        <v>707</v>
+      </c>
       <c r="H39" s="12">
         <v>163</v>
       </c>
       <c r="I39" s="12">
-        <v>1000</v>
+        <v>1670</v>
       </c>
       <c r="J39" s="12">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="K39" s="12">
         <f>SUM(B39:J39)</f>
-        <v>6564</v>
+        <v>10475</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -1620,43 +1846,43 @@
     <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>(B39-B37)</f>
-        <v>-645.75657894736844</v>
+        <v>-107.53086419753095</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:K44" si="2">(C39-C37)</f>
-        <v>1327.3453947368421</v>
+        <v>884.54175744371832</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="2"/>
-        <v>664.83552631578948</v>
+        <v>227.17864923747288</v>
       </c>
       <c r="E44" s="13">
         <f t="shared" si="2"/>
-        <v>-450.84375</v>
+        <v>714.82897603485833</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
-        <v>550.87006578947364</v>
+        <v>250.55519244734933</v>
       </c>
       <c r="G44" s="13">
         <f>(G39-G37)</f>
-        <v>-779.65460526315792</v>
+        <v>-236.03921568627447</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="2"/>
-        <v>-650.55263157894728</v>
+        <v>-1094.3856209150326</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="2"/>
-        <v>294.92105263157896</v>
+        <v>384.67247639796665</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="2"/>
-        <v>69.83552631578948</v>
+        <v>-167.82135076252712</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="2"/>
-        <v>381</v>
+        <v>856.00000000000182</v>
       </c>
       <c r="L44" s="13"/>
     </row>

--- a/Feb 20/feb-20.xlsx
+++ b/Feb 20/feb-20.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>rakib</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>naim barisal + chaldal</t>
+  </si>
+  <si>
+    <t>imon+rakib</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,6 +338,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,14 +715,14 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="17"/>
     <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.85546875" style="1" customWidth="1"/>
@@ -725,7 +756,7 @@
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -766,7 +797,7 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
       <c r="F3">
@@ -808,7 +839,7 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
       <c r="F4">
@@ -850,7 +881,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5">
@@ -892,7 +923,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
       <c r="F6">
@@ -934,7 +965,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
       <c r="F7">
@@ -976,7 +1007,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
       <c r="F8">
@@ -1018,7 +1049,7 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
       <c r="F9">
@@ -1060,7 +1091,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
       <c r="F10">
@@ -1102,7 +1133,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="19">
         <v>1.3</v>
       </c>
       <c r="F11">
@@ -1144,7 +1175,7 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
       <c r="F12">
@@ -1186,7 +1217,7 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13">
@@ -1219,34 +1250,34 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14">
+      <c r="B14" s="25">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2</v>
+      </c>
+      <c r="G14" s="25">
+        <v>2</v>
+      </c>
+      <c r="H14" s="25">
+        <v>2</v>
+      </c>
+      <c r="I14" s="25">
+        <v>2</v>
+      </c>
+      <c r="J14" s="25">
+        <v>2</v>
+      </c>
+      <c r="K14" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1261,34 +1292,34 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15">
+      <c r="B15" s="25">
+        <v>2</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2</v>
+      </c>
+      <c r="I15" s="25">
+        <v>2</v>
+      </c>
+      <c r="J15" s="25">
+        <v>2</v>
+      </c>
+      <c r="K15" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1303,34 +1334,34 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16">
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2</v>
+      </c>
+      <c r="J16" s="25">
+        <v>1</v>
+      </c>
+      <c r="K16" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1339,34 +1370,34 @@
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="B17" s="25">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17">
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25">
+        <v>1</v>
+      </c>
+      <c r="K17" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1381,34 +1412,34 @@
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18">
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25">
+        <v>2</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>2</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2</v>
+      </c>
+      <c r="J18" s="25">
+        <v>2</v>
+      </c>
+      <c r="K18" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1423,34 +1454,34 @@
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="B19" s="25">
+        <v>2</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2</v>
+      </c>
+      <c r="D19" s="25">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>2</v>
+      </c>
+      <c r="I19" s="25">
         <v>3</v>
       </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="25">
+        <v>2</v>
+      </c>
+      <c r="K19" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1465,112 +1496,226 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="B20" s="25">
+        <v>2</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="25">
+        <v>2</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>2</v>
+      </c>
+      <c r="I20" s="25">
         <v>3</v>
       </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L20" s="1">
         <v>547</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="B21" s="25">
+        <v>2</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <v>2</v>
+      </c>
+      <c r="I21" s="25">
         <v>3</v>
       </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="25">
+        <v>2</v>
+      </c>
+      <c r="K21" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L21" s="1">
         <v>385</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B22" s="25">
+        <v>2</v>
+      </c>
+      <c r="C22" s="25">
+        <v>3</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>2</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>2</v>
+      </c>
+      <c r="I22" s="25">
+        <v>2</v>
+      </c>
+      <c r="J22" s="25">
+        <v>3</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L22" s="1">
+        <v>495</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B23" s="25">
+        <v>2</v>
+      </c>
+      <c r="C23" s="25">
+        <v>4</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>2</v>
+      </c>
+      <c r="H23" s="25">
+        <v>2</v>
+      </c>
+      <c r="I23" s="25">
+        <v>4</v>
+      </c>
+      <c r="J23" s="25">
+        <v>3</v>
+      </c>
+      <c r="K23" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L23" s="1">
+        <v>430</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B24" s="25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2</v>
+      </c>
+      <c r="D24" s="25">
+        <v>2</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>2</v>
+      </c>
+      <c r="H24" s="25">
+        <v>2</v>
+      </c>
+      <c r="I24" s="25">
+        <v>2</v>
+      </c>
+      <c r="J24" s="25">
+        <v>3</v>
+      </c>
+      <c r="K24" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L24" s="1">
+        <v>960</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="K25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1579,7 +1724,16 @@
       <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="K26">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1588,7 +1742,16 @@
       <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1597,7 +1760,16 @@
       <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="K28">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1606,7 +1778,16 @@
       <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="K29">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1615,7 +1796,16 @@
       <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="K30">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1624,7 +1814,16 @@
       <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="K31">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1633,7 +1832,16 @@
       <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="K32">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1642,7 +1850,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="10" t="s">
         <v>10</v>
       </c>
@@ -1656,19 +1864,19 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f>SUM(B3:B32)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:K34" si="1">SUM(C3:C32)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E34" s="6">
+        <v>33</v>
+      </c>
+      <c r="E34" s="21">
         <f t="shared" si="1"/>
-        <v>18.3</v>
+        <v>23.3</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
@@ -1676,27 +1884,27 @@
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>36.799999999999997</v>
+        <v>44.8</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>275.39999999999998</v>
+        <v>324.39999999999998</v>
       </c>
       <c r="L34" s="6">
         <f>SUM(L3:L32)</f>
-        <v>9619</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -1705,56 +1913,56 @@
       </c>
       <c r="G36" s="8">
         <f>L34/K34</f>
-        <v>34.927378358750907</v>
+        <v>35.46239210850802</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>B34*G36</f>
-        <v>1187.5308641975309</v>
+        <v>1383.0332922318128</v>
       </c>
       <c r="C37" s="1">
         <f>(C34*G36)</f>
-        <v>1222.4582425562817</v>
+        <v>1560.345252774353</v>
       </c>
       <c r="D37" s="1">
         <f>D34*G36</f>
-        <v>1047.8213507625271</v>
-      </c>
-      <c r="E37" s="1">
+        <v>1170.2589395807647</v>
+      </c>
+      <c r="E37" s="17">
         <f>E34*G36</f>
-        <v>639.17102396514167</v>
+        <v>826.27373612823692</v>
       </c>
       <c r="F37" s="1">
         <f>F34*G36</f>
-        <v>988.44480755265067</v>
+        <v>1003.585696670777</v>
       </c>
       <c r="G37" s="1">
         <f>G34*G36</f>
-        <v>943.03921568627447</v>
+        <v>1099.3341553637486</v>
       </c>
       <c r="H37" s="1">
         <f>H34*G36</f>
-        <v>1257.3856209150326</v>
+        <v>1489.4204685573368</v>
       </c>
       <c r="I37" s="1">
         <f>I34*G36</f>
-        <v>1285.3275236020334</v>
+        <v>1588.7151664611592</v>
       </c>
       <c r="J37" s="1">
         <f>J34*G36</f>
-        <v>1047.8213507625271</v>
+        <v>1383.0332922318128</v>
       </c>
       <c r="K37" s="1">
         <f>K34*G36</f>
-        <v>9618.9999999999982</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="11" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1975,7 @@
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>1080</v>
+        <v>1130</v>
       </c>
       <c r="C39" s="12">
         <v>2107</v>
@@ -1775,8 +1983,8 @@
       <c r="D39" s="12">
         <v>1275</v>
       </c>
-      <c r="E39" s="12">
-        <v>1354</v>
+      <c r="E39" s="22">
+        <v>2534</v>
       </c>
       <c r="F39" s="12">
         <v>1239</v>
@@ -1785,17 +1993,17 @@
         <v>707</v>
       </c>
       <c r="H39" s="12">
-        <v>163</v>
+        <v>1663</v>
       </c>
       <c r="I39" s="12">
-        <v>1670</v>
+        <v>2060</v>
       </c>
       <c r="J39" s="12">
         <v>880</v>
       </c>
       <c r="K39" s="12">
         <f>SUM(B39:J39)</f>
-        <v>10475</v>
+        <v>13595</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -1809,7 +2017,7 @@
       <c r="D42" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="15" t="s">
@@ -1832,7 +2040,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="10" t="s">
         <v>13</v>
       </c>
@@ -1846,43 +2054,43 @@
     <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>(B39-B37)</f>
-        <v>-107.53086419753095</v>
+        <v>-253.03329223181277</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:K44" si="2">(C39-C37)</f>
-        <v>884.54175744371832</v>
+        <v>546.65474722564704</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="2"/>
-        <v>227.17864923747288</v>
-      </c>
-      <c r="E44" s="13">
+        <v>104.74106041923528</v>
+      </c>
+      <c r="E44" s="24">
         <f t="shared" si="2"/>
-        <v>714.82897603485833</v>
+        <v>1707.726263871763</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
-        <v>250.55519244734933</v>
+        <v>235.414303329223</v>
       </c>
       <c r="G44" s="13">
         <f>(G39-G37)</f>
-        <v>-236.03921568627447</v>
+        <v>-392.33415536374855</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="2"/>
-        <v>-1094.3856209150326</v>
+        <v>173.57953144266321</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="2"/>
-        <v>384.67247639796665</v>
+        <v>471.28483353884076</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="2"/>
-        <v>-167.82135076252712</v>
+        <v>-503.03329223181277</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="2"/>
-        <v>856.00000000000182</v>
+        <v>2091</v>
       </c>
       <c r="L44" s="13"/>
     </row>

--- a/Feb 20/feb-20.xlsx
+++ b/Feb 20/feb-20.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>rakib</t>
   </si>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="1">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>5</v>
@@ -1706,72 +1706,168 @@
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="B25" s="25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="25">
+        <v>3</v>
+      </c>
+      <c r="J25" s="25">
+        <v>2</v>
+      </c>
       <c r="K25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="L25" s="1">
+        <v>700</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="B26" s="25">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2</v>
+      </c>
+      <c r="D26" s="25">
+        <v>2</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2</v>
+      </c>
+      <c r="F26" s="25">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25">
+        <v>2</v>
+      </c>
+      <c r="H26" s="25">
+        <v>2</v>
+      </c>
+      <c r="I26" s="25">
+        <v>2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>3</v>
+      </c>
       <c r="K26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="L26" s="1">
+        <v>424</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="B27" s="25">
+        <v>1</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25">
+        <v>2</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>2</v>
+      </c>
+      <c r="J27" s="25">
+        <v>2</v>
+      </c>
       <c r="K27" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L27" s="1">
+        <v>405</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="B28" s="25">
+        <v>1</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2</v>
+      </c>
+      <c r="D28" s="25">
+        <v>2</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
+        <v>2</v>
+      </c>
+      <c r="G28" s="25">
+        <v>2</v>
+      </c>
+      <c r="H28" s="25">
+        <v>2</v>
+      </c>
+      <c r="I28" s="25">
+        <v>2</v>
+      </c>
+      <c r="J28" s="25">
+        <v>2</v>
+      </c>
       <c r="K28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L28" s="1">
+        <v>572</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1864,47 +1960,47 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f>SUM(B3:B32)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:K34" si="1">SUM(C3:C32)</f>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="1"/>
-        <v>23.3</v>
+        <v>29.3</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>28.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>44.8</v>
+        <v>53.8</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>324.39999999999998</v>
+        <v>394.4</v>
       </c>
       <c r="L34" s="6">
         <f>SUM(L3:L32)</f>
-        <v>11504</v>
+        <v>13640</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -1913,49 +2009,49 @@
       </c>
       <c r="G36" s="8">
         <f>L34/K34</f>
-        <v>35.46239210850802</v>
+        <v>34.5841784989858</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>B34*G36</f>
-        <v>1383.0332922318128</v>
+        <v>1521.7038539553753</v>
       </c>
       <c r="C37" s="1">
         <f>(C34*G36)</f>
-        <v>1560.345252774353</v>
+        <v>1832.9614604462474</v>
       </c>
       <c r="D37" s="1">
         <f>D34*G36</f>
-        <v>1170.2589395807647</v>
+        <v>1417.9513184584177</v>
       </c>
       <c r="E37" s="17">
         <f>E34*G36</f>
-        <v>826.27373612823692</v>
+        <v>1013.316430020284</v>
       </c>
       <c r="F37" s="1">
         <f>F34*G36</f>
-        <v>1003.585696670777</v>
+        <v>1255.4056795131844</v>
       </c>
       <c r="G37" s="1">
         <f>G34*G36</f>
-        <v>1099.3341553637486</v>
+        <v>1348.7829614604461</v>
       </c>
       <c r="H37" s="1">
         <f>H34*G36</f>
-        <v>1489.4204685573368</v>
+        <v>1729.2089249492899</v>
       </c>
       <c r="I37" s="1">
         <f>I34*G36</f>
-        <v>1588.7151664611592</v>
+        <v>1860.6288032454358</v>
       </c>
       <c r="J37" s="1">
         <f>J34*G36</f>
-        <v>1383.0332922318128</v>
+        <v>1660.0405679513183</v>
       </c>
       <c r="K37" s="1">
         <f>K34*G36</f>
-        <v>11504</v>
+        <v>13639.999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -1978,7 +2074,7 @@
         <v>1130</v>
       </c>
       <c r="C39" s="12">
-        <v>2107</v>
+        <v>2531</v>
       </c>
       <c r="D39" s="12">
         <v>1275</v>
@@ -1996,14 +2092,14 @@
         <v>1663</v>
       </c>
       <c r="I39" s="12">
-        <v>2060</v>
+        <v>1960</v>
       </c>
       <c r="J39" s="12">
-        <v>880</v>
+        <v>1102</v>
       </c>
       <c r="K39" s="12">
         <f>SUM(B39:J39)</f>
-        <v>13595</v>
+        <v>14141</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -2054,43 +2150,43 @@
     <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>(B39-B37)</f>
-        <v>-253.03329223181277</v>
+        <v>-391.70385395537528</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:K44" si="2">(C39-C37)</f>
-        <v>546.65474722564704</v>
+        <v>698.03853955375257</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="2"/>
-        <v>104.74106041923528</v>
+        <v>-142.95131845841775</v>
       </c>
       <c r="E44" s="24">
         <f t="shared" si="2"/>
-        <v>1707.726263871763</v>
+        <v>1520.6835699797161</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
-        <v>235.414303329223</v>
+        <v>-16.405679513184396</v>
       </c>
       <c r="G44" s="13">
         <f>(G39-G37)</f>
-        <v>-392.33415536374855</v>
+        <v>-641.78296146044613</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="2"/>
-        <v>173.57953144266321</v>
+        <v>-66.208924949289894</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="2"/>
-        <v>471.28483353884076</v>
+        <v>99.371196754564153</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="2"/>
-        <v>-503.03329223181277</v>
+        <v>-558.04056795131828</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="2"/>
-        <v>2091</v>
+        <v>501.00000000000182</v>
       </c>
       <c r="L44" s="13"/>
     </row>

--- a/Feb 20/feb-20.xlsx
+++ b/Feb 20/feb-20.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>rakib</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>imon+rakib</t>
+  </si>
+  <si>
+    <t>chaldal</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="25">
         <v>2</v>
@@ -1735,7 +1738,7 @@
       </c>
       <c r="K25" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="1">
         <v>700</v>
@@ -1761,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="25">
         <v>2</v>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="K26" s="26">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="1">
         <v>424</v>
@@ -1848,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="25">
         <v>2</v>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="K28" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="1">
         <v>572</v>
@@ -1874,36 +1877,81 @@
       <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="B29" s="25">
+        <v>2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>3</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="25">
+        <v>2</v>
+      </c>
+      <c r="F29" s="25">
+        <v>2</v>
+      </c>
+      <c r="G29" s="25">
+        <v>2</v>
+      </c>
+      <c r="H29" s="25">
+        <v>2</v>
+      </c>
+      <c r="I29" s="25">
+        <v>2</v>
+      </c>
+      <c r="J29" s="25">
+        <v>2</v>
+      </c>
       <c r="K29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="L29" s="1">
+        <v>405</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="B30" s="25">
+        <v>2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
+        <v>2</v>
+      </c>
+      <c r="G30" s="25">
+        <v>2</v>
+      </c>
+      <c r="H30" s="25">
+        <v>2</v>
+      </c>
+      <c r="I30" s="25">
+        <v>2</v>
+      </c>
+      <c r="J30" s="25">
+        <v>1</v>
+      </c>
       <c r="K30" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="L30" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1960,47 +2008,47 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f>SUM(B3:B32)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:K34" si="1">SUM(C3:C32)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="1"/>
-        <v>29.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>53.8</v>
+        <v>57.8</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>394.4</v>
+        <v>423.4</v>
       </c>
       <c r="L34" s="6">
         <f>SUM(L3:L32)</f>
-        <v>13640</v>
+        <v>14102</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -2009,49 +2057,49 @@
       </c>
       <c r="G36" s="8">
         <f>L34/K34</f>
-        <v>34.5841784989858</v>
+        <v>33.306565895134625</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>B34*G36</f>
-        <v>1521.7038539553753</v>
+        <v>1598.715162966462</v>
       </c>
       <c r="C37" s="1">
         <f>(C34*G36)</f>
-        <v>1832.9614604462474</v>
+        <v>1931.7808219178082</v>
       </c>
       <c r="D37" s="1">
         <f>D34*G36</f>
-        <v>1417.9513184584177</v>
+        <v>1398.8757675956542</v>
       </c>
       <c r="E37" s="17">
         <f>E34*G36</f>
-        <v>1013.316430020284</v>
+        <v>1075.8020784128482</v>
       </c>
       <c r="F37" s="1">
         <f>F34*G36</f>
-        <v>1255.4056795131844</v>
+        <v>1275.641473783656</v>
       </c>
       <c r="G37" s="1">
         <f>G34*G36</f>
-        <v>1348.7829614604461</v>
+        <v>1398.8757675956542</v>
       </c>
       <c r="H37" s="1">
         <f>H34*G36</f>
-        <v>1729.2089249492899</v>
+        <v>1798.5545583372698</v>
       </c>
       <c r="I37" s="1">
         <f>I34*G36</f>
-        <v>1860.6288032454358</v>
+        <v>1925.1195087387812</v>
       </c>
       <c r="J37" s="1">
         <f>J34*G36</f>
-        <v>1660.0405679513183</v>
+        <v>1698.6348606518659</v>
       </c>
       <c r="K37" s="1">
         <f>K34*G36</f>
-        <v>13639.999999999998</v>
+        <v>14102</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -2071,7 +2119,7 @@
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>1130</v>
+        <v>1230</v>
       </c>
       <c r="C39" s="12">
         <v>2531</v>
@@ -2080,10 +2128,10 @@
         <v>1275</v>
       </c>
       <c r="E39" s="22">
-        <v>2534</v>
+        <v>2334</v>
       </c>
       <c r="F39" s="12">
-        <v>1239</v>
+        <v>1544</v>
       </c>
       <c r="G39" s="12">
         <v>707</v>
@@ -2099,7 +2147,7 @@
       </c>
       <c r="K39" s="12">
         <f>SUM(B39:J39)</f>
-        <v>14141</v>
+        <v>14346</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -2150,43 +2198,43 @@
     <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>(B39-B37)</f>
-        <v>-391.70385395537528</v>
+        <v>-368.715162966462</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:K44" si="2">(C39-C37)</f>
-        <v>698.03853955375257</v>
+        <v>599.21917808219177</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="2"/>
-        <v>-142.95131845841775</v>
+        <v>-123.87576759565422</v>
       </c>
       <c r="E44" s="24">
         <f t="shared" si="2"/>
-        <v>1520.6835699797161</v>
+        <v>1258.1979215871518</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
-        <v>-16.405679513184396</v>
+        <v>268.35852621634399</v>
       </c>
       <c r="G44" s="13">
         <f>(G39-G37)</f>
-        <v>-641.78296146044613</v>
+        <v>-691.87576759565422</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="2"/>
-        <v>-66.208924949289894</v>
+        <v>-135.55455833726978</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="2"/>
-        <v>99.371196754564153</v>
+        <v>34.880491261218822</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="2"/>
-        <v>-558.04056795131828</v>
+        <v>-596.63486065186589</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="2"/>
-        <v>501.00000000000182</v>
+        <v>244</v>
       </c>
       <c r="L44" s="13"/>
     </row>

--- a/Feb 20/feb-20.xlsx
+++ b/Feb 20/feb-20.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>rakib</t>
   </si>
@@ -264,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,11 +287,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +408,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +766,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,46 +1999,97 @@
         <v>14</v>
       </c>
       <c r="L30" s="1">
-        <v>57</v>
+        <v>157</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="B31" s="25">
+        <v>1</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1</v>
+      </c>
+      <c r="F31" s="25">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="I31" s="25">
+        <v>1</v>
+      </c>
+      <c r="J31" s="25">
+        <v>1</v>
+      </c>
       <c r="K31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.6</v>
+      </c>
+      <c r="L31" s="1">
+        <v>243</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="B32" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="H32" s="25">
+        <v>2</v>
+      </c>
+      <c r="I32" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="J32" s="25">
+        <v>2</v>
+      </c>
       <c r="K32" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>473</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2003,16 +2102,16 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <f>SUM(B3:B32)</f>
-        <v>48</v>
+        <v>50.5</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:K34" si="1">SUM(C3:C32)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
@@ -2020,35 +2119,35 @@
       </c>
       <c r="E34" s="21">
         <f t="shared" si="1"/>
-        <v>32.299999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>38.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>44.8</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>57.3</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
-        <v>57.8</v>
+        <v>60.3</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="K34" s="6">
+        <v>54</v>
+      </c>
+      <c r="K34" s="28">
         <f t="shared" si="1"/>
-        <v>423.4</v>
-      </c>
-      <c r="L34" s="6">
+        <v>444.5</v>
+      </c>
+      <c r="L34" s="29">
         <f>SUM(L3:L32)</f>
-        <v>14102</v>
+        <v>14918</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -2057,49 +2156,49 @@
       </c>
       <c r="G36" s="8">
         <f>L34/K34</f>
-        <v>33.306565895134625</v>
+        <v>33.561304836895388</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>B34*G36</f>
-        <v>1598.715162966462</v>
+        <v>1694.8458942632171</v>
       </c>
       <c r="C37" s="1">
         <f>(C34*G36)</f>
-        <v>1931.7808219178082</v>
+        <v>2013.6782902137234</v>
       </c>
       <c r="D37" s="1">
         <f>D34*G36</f>
-        <v>1398.8757675956542</v>
+        <v>1409.5748031496064</v>
       </c>
       <c r="E37" s="17">
         <f>E34*G36</f>
-        <v>1075.8020784128482</v>
+        <v>1167.9334083239594</v>
       </c>
       <c r="F37" s="1">
         <f>F34*G36</f>
-        <v>1275.641473783656</v>
+        <v>1369.3012373453319</v>
       </c>
       <c r="G37" s="1">
         <f>G34*G36</f>
-        <v>1398.8757675956542</v>
+        <v>1503.5464566929134</v>
       </c>
       <c r="H37" s="1">
         <f>H34*G36</f>
-        <v>1798.5545583372698</v>
+        <v>1923.0627671541056</v>
       </c>
       <c r="I37" s="1">
         <f>I34*G36</f>
-        <v>1925.1195087387812</v>
+        <v>2023.7466816647918</v>
       </c>
       <c r="J37" s="1">
         <f>J34*G36</f>
-        <v>1698.6348606518659</v>
+        <v>1812.3104611923509</v>
       </c>
       <c r="K37" s="1">
         <f>K34*G36</f>
-        <v>14102</v>
+        <v>14918</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -2122,7 +2221,7 @@
         <v>1230</v>
       </c>
       <c r="C39" s="12">
-        <v>2531</v>
+        <v>2631</v>
       </c>
       <c r="D39" s="12">
         <v>1275</v>
@@ -2140,14 +2239,14 @@
         <v>1663</v>
       </c>
       <c r="I39" s="12">
-        <v>1960</v>
+        <v>2010</v>
       </c>
       <c r="J39" s="12">
-        <v>1102</v>
+        <v>1602</v>
       </c>
       <c r="K39" s="12">
         <f>SUM(B39:J39)</f>
-        <v>14346</v>
+        <v>14996</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -2198,43 +2297,43 @@
     <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>(B39-B37)</f>
-        <v>-368.715162966462</v>
+        <v>-464.84589426321713</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:K44" si="2">(C39-C37)</f>
-        <v>599.21917808219177</v>
+        <v>617.32170978627664</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="2"/>
-        <v>-123.87576759565422</v>
+        <v>-134.5748031496064</v>
       </c>
       <c r="E44" s="24">
         <f t="shared" si="2"/>
-        <v>1258.1979215871518</v>
+        <v>1166.0665916760406</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
-        <v>268.35852621634399</v>
+        <v>174.69876265466814</v>
       </c>
       <c r="G44" s="13">
         <f>(G39-G37)</f>
-        <v>-691.87576759565422</v>
+        <v>-796.54645669291335</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="2"/>
-        <v>-135.55455833726978</v>
+        <v>-260.06276715410559</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="2"/>
-        <v>34.880491261218822</v>
+        <v>-13.746681664791822</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="2"/>
-        <v>-596.63486065186589</v>
+        <v>-210.31046119235089</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="2"/>
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="L44" s="13"/>
     </row>
